--- a/Requisiti/Data_Dictionary_3.xlsx
+++ b/Requisiti/Data_Dictionary_3.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saretta\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EBDE1AF-50BC-40A6-BD5D-763097519A73}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{52458889-AD1A-4278-B182-6126CD511159}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{EE6D8A4B-0FAC-4083-8449-5E92AAEA0F90}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{EE6D8A4B-0FAC-4083-8449-5E92AAEA0F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>NOME</t>
   </si>
@@ -62,137 +57,146 @@
     <t>Utente</t>
   </si>
   <si>
-    <t>Centralina</t>
-  </si>
-  <si>
-    <t>Centralina automobile</t>
-  </si>
-  <si>
     <t>Centralina stradale</t>
   </si>
   <si>
     <t>Admin</t>
   </si>
   <si>
+    <t>Segnalazione</t>
+  </si>
+  <si>
+    <t>Persona che accede all'app o al sistema</t>
+  </si>
+  <si>
+    <t>Persona che gestisce il sistema</t>
+  </si>
+  <si>
+    <t>Informazione sul traffico che viene fornita all'utente</t>
+  </si>
+  <si>
+    <t>Informazione sul traffico che viene fornita dall'utente</t>
+  </si>
+  <si>
+    <t>carlo_banfi</t>
+  </si>
+  <si>
+    <t>"C'è un ingorgo in via Petrarca, Como"</t>
+  </si>
+  <si>
+    <t>"C'è stato un incidente in via Visconti, Como"</t>
+  </si>
+  <si>
+    <t>Utilizzatore</t>
+  </si>
+  <si>
+    <t>Gestore</t>
+  </si>
+  <si>
+    <t>Avviso</t>
+  </si>
+  <si>
+    <t>_NIckname _Password _Email</t>
+  </si>
+  <si>
+    <t>Unità di controllo stradale</t>
+  </si>
+  <si>
+    <t>Dispositivo per il conteggio dei veicoli in movimento</t>
+  </si>
+  <si>
+    <t>MTRAF 500</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Notifica</t>
   </si>
   <si>
-    <t>Segnalazione</t>
-  </si>
-  <si>
-    <t>Persona che accede all'app o al sistema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dispositivo adibito al rilevamento dei dati del traffico </t>
-  </si>
-  <si>
-    <t>Persona che gestisce il sistema</t>
-  </si>
-  <si>
-    <t>Informazione sul traffico che viene fornita all'utente</t>
-  </si>
-  <si>
-    <t>Informazione sul traffico che viene fornita dall'utente</t>
-  </si>
-  <si>
-    <t>mario_rossi</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>carlo_banfi</t>
-  </si>
-  <si>
-    <t>"C'è un ingorgo in via Petrarca, Como"</t>
-  </si>
-  <si>
-    <t>"C'è stato un incidente in via Visconti, Como"</t>
-  </si>
-  <si>
-    <t>Utilizzatore</t>
-  </si>
-  <si>
-    <t>Console</t>
-  </si>
-  <si>
-    <t>_Centralina</t>
-  </si>
-  <si>
-    <t>_Centralina automobile _Centralina stradale</t>
-  </si>
-  <si>
-    <t>Gestore</t>
-  </si>
-  <si>
-    <t>Avviso</t>
-  </si>
-  <si>
-    <t>_Posizione _Velocità</t>
-  </si>
-  <si>
-    <t>_Nickname _Password _Email</t>
-  </si>
-  <si>
-    <t>_NIckname _Password _Email</t>
-  </si>
-  <si>
-    <t>_Notifiche _Segnalazioni _Statistiche</t>
-  </si>
-  <si>
-    <t>_Sistema centrale _Centralina automobile _Centralina stradale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Sistema centrale  </t>
-  </si>
-  <si>
-    <t>Unità di controllo stradale</t>
-  </si>
-  <si>
-    <t>_Utente                        _Sistema centrale</t>
-  </si>
-  <si>
-    <t>Black box</t>
-  </si>
-  <si>
-    <t>Unità per il rilevamento elettronico della velocità e della posizione</t>
-  </si>
-  <si>
-    <t>Unità di controllo</t>
-  </si>
-  <si>
-    <t>Misurazione velocità e posizione del veicolo</t>
-  </si>
-  <si>
-    <t>Dispositivo per il conteggio dei veicoli in movimento</t>
-  </si>
-  <si>
-    <t>MTRAF 500</t>
-  </si>
-  <si>
-    <t>_Sensore ottico _Posizione</t>
-  </si>
-  <si>
-    <t>Conteggio veicoli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Sistema centrale </t>
-  </si>
-  <si>
-    <t>_Velocità _Posizione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Sistema centrale _Applicazione </t>
-  </si>
-  <si>
-    <t>Feedback</t>
+    <t>Feed</t>
+  </si>
+  <si>
+    <t>_Codice utente</t>
+  </si>
+  <si>
+    <t>Mario Rossi</t>
+  </si>
+  <si>
+    <t>Dati traffico per admin</t>
+  </si>
+  <si>
+    <t>_Testo</t>
+  </si>
+  <si>
+    <t>_Presenza traffico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _Posizione     _Numero veicoli</t>
+  </si>
+  <si>
+    <t>Resoconto</t>
+  </si>
+  <si>
+    <t>Dati traffico per utente</t>
+  </si>
+  <si>
+    <t>Applicazione</t>
+  </si>
+  <si>
+    <t>Direttiva</t>
+  </si>
+  <si>
+    <t>Aggiornamento</t>
+  </si>
+  <si>
+    <t>_Sensore ottico   _GPS</t>
+  </si>
+  <si>
+    <t>_GPS</t>
+  </si>
+  <si>
+    <t>6D8S9C3A</t>
+  </si>
+  <si>
+    <t>Programma</t>
+  </si>
+  <si>
+    <t>_Dati traffico per utente</t>
+  </si>
+  <si>
+    <t>_Dati traffico per admin</t>
+  </si>
+  <si>
+    <t>_Applicazione _Notifiche _Segnalazioni             _Dati traffico per utente</t>
+  </si>
+  <si>
+    <t>_Statistiche           _Dati traffico per admin             _Direttiva</t>
+  </si>
+  <si>
+    <t>_Direttiva</t>
+  </si>
+  <si>
+    <t>_Applicazione _Utente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Applicazione _Utente  </t>
+  </si>
+  <si>
+    <t>_Admin              _Centralina stradale</t>
+  </si>
+  <si>
+    <t>_Utente             _Notifica                     _Feed</t>
+  </si>
+  <si>
+    <t>Dati centralina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,20 +204,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -273,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,7 +296,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -610,26 +617,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4E8687-6DD1-45CA-BFE8-687C71C89781}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:I8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -658,230 +665,245 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="H6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="I6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="147.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:10" ht="141.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -892,7 +914,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -903,7 +925,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>

--- a/Requisiti/Data_Dictionary_3.xlsx
+++ b/Requisiti/Data_Dictionary_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saretta\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{52458889-AD1A-4278-B182-6126CD511159}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DC985758-C319-4DC6-BDD0-D5319D7DEA84}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{EE6D8A4B-0FAC-4083-8449-5E92AAEA0F90}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>NOME</t>
   </si>
@@ -162,6 +162,9 @@
     <t>Programma</t>
   </si>
   <si>
+    <t>Nozioni</t>
+  </si>
+  <si>
     <t>_Dati traffico per utente</t>
   </si>
   <si>
@@ -190,6 +193,51 @@
   </si>
   <si>
     <t>Dati centralina</t>
+  </si>
+  <si>
+    <t>Informazioni mandate dalla centralina al sistema centrale per poi essere elaborate</t>
+  </si>
+  <si>
+    <t>"Sono passate 5 automobili in via Valleggio nell'ultimo minuto"</t>
+  </si>
+  <si>
+    <t>_Centralina stradale</t>
+  </si>
+  <si>
+    <t>Informazioni sul traffico approfondite mandate dal sistema all'admin</t>
+  </si>
+  <si>
+    <t>Informazioni sul traffico mandate dal sistema centrale all'utente</t>
+  </si>
+  <si>
+    <t>_Admin</t>
+  </si>
+  <si>
+    <t>Nuove impostazioni sul sistema decise dall'admin</t>
+  </si>
+  <si>
+    <t>"Escludi centralina tot dal sistema"</t>
+  </si>
+  <si>
+    <t>Software al quale accede l'utente</t>
+  </si>
+  <si>
+    <t>"In via Roma non c'è traffico"</t>
+  </si>
+  <si>
+    <t>_Codice identificativo centralina _Posizione _Numero veicoli contati</t>
+  </si>
+  <si>
+    <t>Informazioni sulla centralina</t>
+  </si>
+  <si>
+    <t>_Statistiche _Numero veicoli                  _Date e orari  _Informazioni sul traffico</t>
+  </si>
+  <si>
+    <t>_Informazioni sul traffico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Utente </t>
   </si>
 </sst>
 </file>
@@ -205,21 +253,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -272,11 +314,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -297,10 +367,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -318,6 +398,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1635588</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1190626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Immagine 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62EEE9E5-3329-48E6-8A8B-DB42882BFCCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4794250" y="6635751"/>
+          <a:ext cx="1397463" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -619,16 +748,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4E8687-6DD1-45CA-BFE8-687C71C89781}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
@@ -666,239 +795,293 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="E2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="F8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="H10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="11" spans="1:10" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>54</v>
+      <c r="A11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="147.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -994,5 +1177,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>